--- a/xlsx/MorleysAcuteSkewPlate.xlsx
+++ b/xlsx/MorleysAcuteSkewPlate.xlsx
@@ -470,85 +470,85 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.9030899869919435</v>
+        <v>1.0969100130080565</v>
       </c>
       <c r="C2">
-        <v>9.681494543733263e-5</v>
+        <v>0.00010158463262080479</v>
       </c>
       <c r="D2">
-        <v>-0.38373124788477814</v>
+        <v>-0.38373625984900167</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2">
-        <v>-0.9030899869919435</v>
+        <v>1.0969100130080565</v>
       </c>
       <c r="G2">
-        <v>0.4189914686197134</v>
+        <v>0.44503210957218325</v>
       </c>
       <c r="H2">
-        <v>-2.252474108094219</v>
+        <v>-1.4998718436515415</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3">
-        <v>-1.2041199826559248</v>
+        <v>0.7958800173440752</v>
       </c>
       <c r="C3">
-        <v>0.00030937316387934634</v>
+        <v>0.000513604994264715</v>
       </c>
       <c r="D3">
-        <v>-0.3839546591980286</v>
+        <v>-0.3841694273003547</v>
       </c>
       <c r="F3">
-        <v>-1.2041199826559248</v>
+        <v>0.7958800173440752</v>
       </c>
       <c r="G3">
-        <v>0.42668755569469324</v>
+        <v>0.4236980678511681</v>
       </c>
       <c r="H3">
-        <v>-1.876554902122663</v>
+        <v>-1.9872442510511399</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="B4">
-        <v>-1.505149978319906</v>
+        <v>0.494850021680094</v>
       </c>
       <c r="C4">
-        <v>0.0010485182772225735</v>
+        <v>0.002099729923930357</v>
       </c>
       <c r="D4">
-        <v>-0.38473244052641165</v>
+        <v>-0.3858410053157502</v>
       </c>
       <c r="F4">
-        <v>-1.505149978319906</v>
+        <v>0.494850021680094</v>
       </c>
       <c r="G4">
-        <v>0.42102027275374315</v>
+        <v>0.4236738695384515</v>
       </c>
       <c r="H4">
-        <v>-2.1180294836045466</v>
+        <v>-1.988265953415103</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5">
-        <v>-1.806179973983887</v>
+        <v>0.19382002601611284</v>
       </c>
       <c r="C5">
-        <v>0.003353545629594914</v>
+        <v>0.007809684609272146</v>
       </c>
       <c r="D5">
-        <v>-0.3871669390513058</v>
+        <v>-0.39191242355287775</v>
       </c>
       <c r="F5">
-        <v>-1.806179973983887</v>
+        <v>0.19382002601611284</v>
       </c>
       <c r="G5">
-        <v>0.41954899378688293</v>
+        <v>0.41957405598966224</v>
       </c>
       <c r="H5">
-        <v>-2.2111959457785453</v>
+        <v>-2.20942943641999</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -564,19 +564,19 @@
         <v>1.0969100130080565</v>
       </c>
       <c r="C7">
-        <v>0.009474691683073971</v>
+        <v>0.009907462418798885</v>
       </c>
       <c r="D7">
-        <v>-0.38161160385882414</v>
+        <v>-0.3820643764905058</v>
       </c>
       <c r="F7">
-        <v>-0.9030899869919435</v>
+        <v>1.0969100130080565</v>
       </c>
       <c r="G7">
-        <v>0.4200549269979722</v>
+        <v>0.4461802201622771</v>
       </c>
       <c r="H7">
-        <v>-2.32375710164892</v>
+        <v>-1.669987826967757</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -584,19 +584,19 @@
         <v>0.7958800173440752</v>
       </c>
       <c r="C8">
-        <v>0.028805028236726</v>
+        <v>0.04578255052733127</v>
       </c>
       <c r="D8">
-        <v>-0.4023103285929927</v>
+        <v>-0.42134079521598045</v>
       </c>
       <c r="F8">
-        <v>-1.2041199826559248</v>
+        <v>0.7958800173440752</v>
       </c>
       <c r="G8">
-        <v>0.42846577950932824</v>
+        <v>0.4252893942287635</v>
       </c>
       <c r="H8">
-        <v>-2.4358336606945454</v>
+        <v>-3.3103411564205825</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -604,19 +604,19 @@
         <v>0.494850021680094</v>
       </c>
       <c r="C9">
-        <v>0.0833237127051225</v>
+        <v>0.1399746479736707</v>
       </c>
       <c r="D9">
-        <v>-0.46663944909677724</v>
+        <v>-0.5454213571871483</v>
       </c>
       <c r="F9">
-        <v>-1.505149978319906</v>
+        <v>0.494850021680094</v>
       </c>
       <c r="G9">
-        <v>0.42365502540072614</v>
+        <v>0.42655326009157984</v>
       </c>
       <c r="H9">
-        <v>-2.941204147837242</v>
+        <v>-2.7561536526688366</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -624,19 +624,19 @@
         <v>0.19382002601611284</v>
       </c>
       <c r="C10">
-        <v>0.1828463683650779</v>
+        <v>0.27413496394246406</v>
       </c>
       <c r="D10">
-        <v>-0.6162678549061722</v>
+        <v>-0.8219875201408892</v>
       </c>
       <c r="F10">
-        <v>-1.806179973983887</v>
+        <v>0.19382002601611284</v>
       </c>
       <c r="G10">
-        <v>0.4243703669830838</v>
+        <v>0.4243374725853344</v>
       </c>
       <c r="H10">
-        <v>-3.3669023508803297</v>
+        <v>-3.334862520902995</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -652,19 +652,19 @@
         <v>1.0969100130080565</v>
       </c>
       <c r="C12">
-        <v>0.3439535451989162</v>
+        <v>0.3412555124014114</v>
       </c>
       <c r="D12">
-        <v>-0.7600840481826506</v>
+        <v>-0.7533919051300864</v>
       </c>
       <c r="F12">
         <v>1.0969100130080565</v>
       </c>
       <c r="G12">
-        <v>0.4976801051234297</v>
+        <v>0.5322600238362403</v>
       </c>
       <c r="H12">
-        <v>-1.6985382073085122</v>
+        <v>-1.8368379140381517</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -672,19 +672,19 @@
         <v>0.7958800173440752</v>
       </c>
       <c r="C13">
-        <v>0.4435189001537541</v>
+        <v>0.4692096609657022</v>
       </c>
       <c r="D13">
-        <v>-1.1297067318915481</v>
+        <v>-1.3143447793777734</v>
       </c>
       <c r="F13">
         <v>0.7958800173440752</v>
       </c>
       <c r="G13">
-        <v>0.5218368864278701</v>
+        <v>0.5122438018822916</v>
       </c>
       <c r="H13">
-        <v>-2.3833264018568197</v>
+        <v>-2.26310986858152</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -692,19 +692,19 @@
         <v>0.494850021680094</v>
       </c>
       <c r="C14">
-        <v>0.4909903479032007</v>
+        <v>0.504985134383578</v>
       </c>
       <c r="D14">
-        <v>-1.5733317687897197</v>
+        <v>-1.89568822552797</v>
       </c>
       <c r="F14">
         <v>0.494850021680094</v>
       </c>
       <c r="G14">
-        <v>0.5161192309987842</v>
+        <v>0.5187363997603519</v>
       </c>
       <c r="H14">
-        <v>-2.8011315891613715</v>
+        <v>-2.9844726961087114</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -712,19 +712,19 @@
         <v>0.19382002601611284</v>
       </c>
       <c r="C15">
-        <v>0.5088886650888614</v>
+        <v>0.5141528059619729</v>
       </c>
       <c r="D15">
-        <v>-2.0549582912901467</v>
+        <v>-2.4501150541726626</v>
       </c>
       <c r="F15">
         <v>0.19382002601611284</v>
       </c>
       <c r="G15">
-        <v>0.5182153377215807</v>
+        <v>0.517476224452511</v>
       </c>
       <c r="H15">
-        <v>-3.2879080669805516</v>
+        <v>-3.6501873716537356</v>
       </c>
     </row>
   </sheetData>
